--- a/COMANDOS SQL.xlsx
+++ b/COMANDOS SQL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AXEL\DOCUMENTOS\U\GITHUB\SimplqQL_XD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX\Doc\USAC\U\REPOSITORIOS GITHUB\SimplqQL_XD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EBA920-A829-467B-A21D-72ADC08D233B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F9A887-2DC7-40BF-83B9-0910E83F0DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4185" yWindow="4440" windowWidth="28800" windowHeight="12135" activeTab="4" xr2:uid="{AE78FFA2-7F87-4873-BAF0-E744CE7C34DF}"/>
+    <workbookView xWindow="-9708" yWindow="3168" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{AE78FFA2-7F87-4873-BAF0-E744CE7C34DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="156">
   <si>
     <t>CREATE</t>
   </si>
@@ -476,6 +476,27 @@
   </si>
   <si>
     <t>"joder"</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -519,7 +540,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,6 +607,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -599,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -607,7 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -616,11 +642,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,27 +962,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39DB219-91EE-4AB8-AF64-2AB64A95577A}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
@@ -989,7 +1014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1015,18 +1040,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1034,18 +1059,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1053,12 +1078,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1066,30 +1091,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="6"/>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1097,12 +1122,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1110,7 +1135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>15</v>
       </c>
@@ -1118,12 +1143,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
         <v>29</v>
       </c>
@@ -1131,7 +1156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
@@ -1142,60 +1167,87 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
       <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1204,13 +1256,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1219,17 +1272,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1237,13 +1290,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F39" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1252,13 +1305,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F41" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1267,42 +1320,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K49">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -1310,42 +1363,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D53" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G59" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H60" t="s">
         <v>47</v>
       </c>
@@ -1358,26 +1411,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6BFB15-0645-47F1-842A-0E8BDEBDD516}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>34</v>
       </c>
@@ -1409,131 +1462,127 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="1">
         <v>6</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L14" s="6"/>
     </row>
   </sheetData>
@@ -1550,139 +1599,139 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="C1" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="C3" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
       <c r="C4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="C6" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="C7" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="C8" s="10" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="C8" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="C9" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="C10" s="10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="C10" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="C11" s="10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="C11" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="C12" s="10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="C12" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="C13" s="10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="C13" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
       <c r="C14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
       <c r="C15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
       <c r="C16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
       <c r="C17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
       <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
       <c r="C20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
       <c r="C21" t="s">
         <v>64</v>
       </c>
@@ -1693,25 +1742,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
       <c r="E22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
       <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
       <c r="C24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>64</v>
       </c>
@@ -1722,17 +1771,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>71</v>
       </c>
@@ -1740,7 +1789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>72</v>
       </c>
@@ -1756,16 +1805,16 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1825,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1787,7 +1836,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1798,7 +1847,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1809,7 +1858,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1820,7 +1869,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1831,7 +1880,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1842,7 +1891,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1853,7 +1902,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,7 +1913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1886,7 +1935,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1897,7 +1946,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1905,7 +1954,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1916,7 +1965,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1924,7 +1973,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1932,7 +1981,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1940,7 +1989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1951,7 +2000,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1959,7 +2008,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1970,7 +2019,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1981,7 +2030,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -1992,7 +2041,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -2003,7 +2052,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2014,7 +2063,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2025,7 +2074,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2036,7 +2085,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2047,7 +2096,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2058,7 +2107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2069,7 +2118,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2080,7 +2129,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -2100,19 +2149,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742AC798-63E4-474F-8852-32BB304A9038}">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
@@ -2134,17 +2183,17 @@
       <c r="H2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>73</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2157,16 +2206,16 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="18" t="s">
         <v>146</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="18" t="s">
         <v>141</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2176,23 +2225,23 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="18" t="s">
         <v>147</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2205,14 +2254,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2231,7 +2280,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2244,14 +2293,14 @@
       <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="18" t="s">
         <v>138</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2268,7 +2317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2282,59 +2331,59 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="18" t="s">
         <v>139</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>

--- a/COMANDOS SQL.xlsx
+++ b/COMANDOS SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX\Doc\USAC\U\REPOSITORIOS GITHUB\SimplqQL_XD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F9A887-2DC7-40BF-83B9-0910E83F0DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A081244-ED56-4A2B-B3A1-CCFBAB4844FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9708" yWindow="3168" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{AE78FFA2-7F87-4873-BAF0-E744CE7C34DF}"/>
+    <workbookView xWindow="-9912" yWindow="3588" windowWidth="21600" windowHeight="11772" activeTab="1" xr2:uid="{AE78FFA2-7F87-4873-BAF0-E744CE7C34DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="156">
   <si>
     <t>CREATE</t>
   </si>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6BFB15-0645-47F1-842A-0E8BDEBDD516}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,7 +1582,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
       <c r="L14" s="6"/>
     </row>
   </sheetData>

--- a/COMANDOS SQL.xlsx
+++ b/COMANDOS SQL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX\Doc\USAC\U\REPOSITORIOS GITHUB\SimplqQL_XD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AXEL\DOCUMENTOS\U\GITHUB\SimplqQL_XD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A081244-ED56-4A2B-B3A1-CCFBAB4844FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132EF858-84F3-4BB1-B1BE-1BBF8C9788FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9912" yWindow="3588" windowWidth="21600" windowHeight="11772" activeTab="1" xr2:uid="{AE78FFA2-7F87-4873-BAF0-E744CE7C34DF}"/>
+    <workbookView xWindow="-9465" yWindow="8760" windowWidth="28800" windowHeight="12135" xr2:uid="{AE78FFA2-7F87-4873-BAF0-E744CE7C34DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="158">
   <si>
     <t>CREATE</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -960,29 +966,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39DB219-91EE-4AB8-AF64-2AB64A95577A}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1040,18 +1046,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1059,18 +1065,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1078,12 +1084,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1091,30 +1097,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="6"/>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1122,12 +1128,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>15</v>
       </c>
@@ -1143,12 +1149,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>29</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
@@ -1167,34 +1173,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="2" t="s">
         <v>23</v>
@@ -1235,19 +1241,19 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1256,14 +1262,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1272,17 +1278,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1290,13 +1296,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1305,13 +1311,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1320,42 +1326,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K49">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -1363,44 +1369,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1413,24 +1487,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6BFB15-0645-47F1-842A-0E8BDEBDD516}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>34</v>
       </c>
@@ -1462,7 +1536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1470,7 +1544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1522,7 +1596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1530,7 +1604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1550,7 +1624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1582,27 +1656,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>75</v>
       </c>
@@ -1622,24 +1696,24 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="C1" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="C3" s="8" t="s">
         <v>60</v>
@@ -1648,19 +1722,19 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="C4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="C6" s="9" t="s">
         <v>60</v>
@@ -1669,91 +1743,91 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="C7" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="C8" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="C9" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="C10" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="C11" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="C12" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="C13" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="C14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="C15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="C16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="C17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="C20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="C21" t="s">
         <v>64</v>
@@ -1765,25 +1839,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="E22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="C24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>64</v>
       </c>
@@ -1794,17 +1868,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>71</v>
       </c>
@@ -1812,7 +1886,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>72</v>
       </c>
@@ -1831,13 +1905,13 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +1922,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1859,7 +1933,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1870,7 +1944,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1881,7 +1955,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1892,7 +1966,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1903,7 +1977,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1914,7 +1988,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1925,7 +1999,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1936,7 +2010,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1947,7 +2021,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1958,7 +2032,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +2043,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1977,7 +2051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1988,7 +2062,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1996,7 +2070,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2004,7 +2078,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2012,7 +2086,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2023,7 +2097,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2031,7 +2105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -2042,7 +2116,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2053,7 +2127,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2064,7 +2138,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -2075,7 +2149,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2086,7 +2160,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2097,7 +2171,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2108,7 +2182,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2119,7 +2193,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2130,7 +2204,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2141,7 +2215,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2152,7 +2226,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -2176,15 +2250,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
@@ -2216,7 +2290,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2322,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2277,7 +2351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2303,7 +2377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2323,7 +2397,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2340,7 +2414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,7 +2428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,7 +2439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>136</v>
       </c>
@@ -2376,7 +2450,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -2387,7 +2461,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -2398,7 +2472,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2406,7 +2480,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
